--- a/Vizsgaremek teszteset.xlsx
+++ b/Vizsgaremek teszteset.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhO7z9PCR2Fv4V6oxcYfQ66WS+1gg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhVHiiCGFr68VBZmWPgNgNybOimng=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="204">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -56,51 +56,19 @@
     <t>Megjegyzés (Comment)</t>
   </si>
   <si>
-    <t>TC0</t>
-  </si>
-  <si>
-    <t>Minta teszteset</t>
-  </si>
-  <si>
-    <t>Minta teszteet leíeása</t>
-  </si>
-  <si>
-    <t>Azok az előfeltételek, amik szükségesek a teszteset lefuttatásához, mint pl: mérőeszköz megléte, elérhető tesztkörnyezet</t>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Regisztráció helyes adatokkal</t>
+  </si>
+  <si>
+    <t>Regisztráció tesztelése megfelelő formátumú adatokkal</t>
+  </si>
+  <si>
+    <t>Elérhető a weboldal</t>
   </si>
   <si>
     <t>Normál</t>
-  </si>
-  <si>
-    <t>Felelős</t>
-  </si>
-  <si>
-    <t>1. Lépés 1
-2. Lépés 2
-3. Lépés 3</t>
-  </si>
-  <si>
-    <t>Szükésges tesztadat</t>
-  </si>
-  <si>
-    <t>Elvárt eredmény megfogalmazása</t>
-  </si>
-  <si>
-    <t>A tesztfuttatás során tapasztalt tényleges eredmény. Sikeres futás megegyezik az elvárt eredménnyel</t>
-  </si>
-  <si>
-    <t>Siker</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>Regisztráció helyes adatokkal</t>
-  </si>
-  <si>
-    <t>Regisztráció tesztelése megfelelő formátumú adatokkal</t>
-  </si>
-  <si>
-    <t>Elérhető a weboldal</t>
   </si>
   <si>
     <t>Farsang Máté</t>
@@ -150,6 +118,9 @@
     <t>Elvárt eredményt kapunk</t>
   </si>
   <si>
+    <t>Siker</t>
+  </si>
+  <si>
     <t>TC02</t>
   </si>
   <si>
@@ -294,7 +265,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" </t>
+    <t xml:space="preserve">1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" </t>
   </si>
   <si>
     <t>Sikeres bejelentkezés</t>
@@ -312,7 +285,9 @@
     <t>Bejelentkezés tesztelése a mezők kitöltése nélkül</t>
   </si>
   <si>
-    <t xml:space="preserve">1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "" 4.Password = "" </t>
+    <t xml:space="preserve">1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = ""
+4.Password = "" </t>
   </si>
   <si>
     <t>Sikertelen bejelentkezés,hibaüzenetet kapunk</t>
@@ -479,7 +454,9 @@
 8.Olvassuk ki és hasonlítsuk össze az elvárt nevekkel</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" 
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" 
 8."Pablo Escobar"
 "Montino Riau"
 "Alex Naasri"
@@ -510,7 +487,9 @@
 8.Olvassuk ki és hasonlítsuk össze az elvárt leírással</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" 
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" 
 8."We are specialized in developing forward-thinking brand identities, websites, illustration and animation for all types of customers. And we do this by bringing our customers through each phase of the design process with us."</t>
   </si>
   <si>
@@ -536,7 +515,9 @@
 8.Kattintsunk a "Send Message" gombra</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" 
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" 
 8."Teszt"
 "Elek"
 "tesztelek@gmail.com"
@@ -567,7 +548,9 @@
 9.Hasonlítsuk össze a kiolvasott neveket az elvártakkal</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" 
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" 
 9."KIO-TAPE BRAND"
 "USE-LESS BRAND"
 "OSEN CLOCK"
@@ -597,7 +580,9 @@
 8.Kattintsunk a "Save Profile" gombra</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" 
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" 
 7."Vagasi Ferenc"
 "beszálltam az internetbe"
 "1233456"</t>
@@ -627,7 +612,9 @@
 10.Kattintsunk a "Save Profile" gombra</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123" 
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123" 
 7."1233456"
 "Vagasi Ferenc"
 "beszálltam az internetbe"
@@ -655,7 +642,9 @@
 8.Töröljük ki a bevitt adatokat</t>
   </si>
   <si>
-    <t>1. URL = "https://lennertamas.github.io/roxo/" 4.Username = "lovasia" 4.Password = "kispal123"
+    <t>1. URL = "https://lennertamas.github.io/roxo/" 
+4.Username = "lovasia" 
+4.Password = "kispal123"
 7."Vagasi Ferenc"
 "beszálltam az internetbe"
 "1233456"</t>
@@ -728,6 +717,99 @@
     <t>A profil törlésre kerül, azzal való bejelentkezés sikertelen</t>
   </si>
   <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>Gombok tesztelése</t>
+  </si>
+  <si>
+    <t>Annak tesztelése, hogy a gombok megfelelő helyre vezetnek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "Home" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
+    <t>A gomb lenyomása után a megfelelő oldalra kerülünk</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "About" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "Portfolio" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "Blog" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "Get in touch" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "Profile" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigáljunk a weboldalra
+2.Fogadjuk el a "Terms and conditions" felugró ablakot
+3.Kattintsunk a "Login" fülre
+4.Töltsük ki a "Username" és "Password" mezőket
+5.Kattintsunk a "Login" gombra
+6.Nyomjuk meg felül a "Logout" gombot
+7.Ellenőrizzük, hogy a megfelelő helyre vezet </t>
+  </si>
+  <si>
     <t>Bug #1</t>
   </si>
   <si>
@@ -870,7 +952,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -886,11 +968,6 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FFB7B7B7"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -950,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -959,36 +1036,27 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1246,13 +1314,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col customWidth="1" min="2" max="2" width="14.25"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="4" width="31.75"/>
-    <col customWidth="1" min="5" max="5" width="10.75"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
-    <col customWidth="1" min="8" max="8" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="31.25"/>
+    <col customWidth="1" min="5" max="5" width="9.25"/>
+    <col customWidth="1" min="6" max="6" width="10.38"/>
+    <col customWidth="1" min="7" max="7" width="23.38"/>
+    <col customWidth="1" min="8" max="8" width="20.13"/>
     <col customWidth="1" min="9" max="9" width="16.88"/>
     <col customWidth="1" min="10" max="10" width="17.0"/>
     <col customWidth="1" min="11" max="11" width="16.25"/>
@@ -1310,7 +1378,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" ht="60.0" customHeight="1">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1400,7 @@
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1344,7 +1412,7 @@
       <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1359,41 +1427,41 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" ht="96.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1408,41 +1476,41 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" ht="118.5" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="8"/>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1457,41 +1525,41 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" ht="82.5" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="8"/>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1506,41 +1574,41 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="114.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1555,41 +1623,41 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" ht="114.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1604,41 +1672,41 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" ht="105.0" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1653,41 +1721,41 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" ht="129.0" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1702,41 +1770,41 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" ht="128.25" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="H10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1752,40 +1820,40 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1801,40 +1869,40 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="H12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1850,40 +1918,40 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1898,41 +1966,41 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="60.0" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1947,41 +2015,41 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" ht="60.0" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="I15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1996,41 +2064,41 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="99.0" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2045,41 +2113,41 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" ht="99.0" customHeight="1">
-      <c r="A17" s="5" t="s">
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2095,40 +2163,40 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="H18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2144,40 +2212,40 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="J19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8"/>
+      <c r="K19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="6"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2193,40 +2261,40 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="8"/>
+      <c r="I20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="6"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2242,40 +2310,40 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="8"/>
+      <c r="J21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2291,40 +2359,40 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="J22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="8"/>
+      <c r="K22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2340,40 +2408,40 @@
       <c r="Y22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="H23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="8"/>
+      <c r="J23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="6"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2389,40 +2457,40 @@
       <c r="Y23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="H24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="8"/>
+      <c r="J24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="6"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2437,19 +2505,90 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="6"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2464,19 +2603,41 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="6"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2491,19 +2652,41 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2518,19 +2701,41 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2545,19 +2750,41 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -7729,33 +7956,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-    </row>
+    <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
@@ -8535,50 +8736,49 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
+  <conditionalFormatting sqref="K2:K30">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
+  <conditionalFormatting sqref="K2:K30">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
+  <conditionalFormatting sqref="K2:K30">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K24">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K30">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E24">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E30">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="H4"/>
-    <hyperlink r:id="rId3" ref="H5"/>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+    <hyperlink r:id="rId3" ref="H4"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -8610,1465 +8810,1465 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="45.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="102.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="48.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="48.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>171</v>
+      <c r="D6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" ht="48.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>173</v>
+      <c r="D7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" ht="48.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" ht="48.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="48.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="48.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" ht="48.0" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" ht="48.0" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" ht="115.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="13"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="13"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="13"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="13"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="13"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="13"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="13"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="13"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="13"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="13"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="13"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
